--- a/data/evaluation/evaluation_Center_Summer_Beets.xlsx
+++ b/data/evaluation/evaluation_Center_Summer_Beets.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2742.121217349317</v>
+        <v>2812.987546016021</v>
       </c>
       <c r="C4" t="n">
-        <v>18387977.2913529</v>
+        <v>19541501.85086016</v>
       </c>
       <c r="D4" t="n">
-        <v>4288.120484705729</v>
+        <v>4420.577094776219</v>
       </c>
       <c r="E4" t="n">
-        <v>-2.826648596529525</v>
+        <v>-3.066703990701486</v>
       </c>
     </row>
     <row r="5">
